--- a/data_excel/590.xlsx
+++ b/data_excel/590.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>小風</t>
   </si>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +501,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -662,7 +666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -673,15 +677,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/590.xlsx
+++ b/data_excel/590.xlsx
@@ -117,9 +117,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
@@ -128,6 +125,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +502,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -543,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -681,16 +682,16 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
